--- a/src/main/java/onion/open/poi/poi-test.xlsx
+++ b/src/main/java/onion/open/poi/poi-test.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView windowHeight="18080" windowWidth="15960" xWindow="0" yWindow="40"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表 1" sheetId="1" r:id="rId4"/>
+    <sheet name="工作表 1" r:id="rId4" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="2">
   <si>
     <t>表格 1</t>
+  </si>
+  <si>
+    <t>write test3</t>
   </si>
 </sst>
 </file>
@@ -47,7 +50,7 @@
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -72,6 +75,24 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="800080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="800080"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -225,65 +246,70 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf applyAlignment="1" applyBorder="0" applyFill="0" applyFont="1" applyNumberFormat="0" applyProtection="0" fontId="0" numFmtId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="22">
+    <xf applyAlignment="1" applyBorder="0" applyFill="0" applyFont="1" applyNumberFormat="0" applyProtection="0" fontId="0" numFmtId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf applyAlignment="1" applyBorder="0" applyFill="0" applyFont="1" applyNumberFormat="1" applyProtection="0" fontId="0" numFmtId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="0" borderId="1" fillId="2" fontId="1" numFmtId="49">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="2" fontId="1" numFmtId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="2" fontId="1" numFmtId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="0" borderId="4" fillId="3" fontId="3" numFmtId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="3" fontId="3" numFmtId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="0" borderId="5" fillId="4" fontId="3" numFmtId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="0" borderId="6" fillId="2" fontId="0" numFmtId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="0" borderId="7" fillId="2" fontId="0" numFmtId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="2" fontId="0" numFmtId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="0" borderId="8" fillId="4" fontId="3" numFmtId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="0" borderId="9" fillId="2" fontId="0" numFmtId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="0" borderId="10" fillId="2" fontId="0" numFmtId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="0" applyProtection="0" borderId="10" fillId="2" fontId="0" numFmtId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="4" fontId="3" numFmtId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="0" applyProtection="0" borderId="9" fillId="2" fontId="0" numFmtId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf applyFill="true" borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
@@ -411,7 +437,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -420,13 +446,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -471,7 +497,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -490,7 +516,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -502,7 +528,7 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="25400" cap="flat">
+        <a:ln cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
@@ -512,26 +538,26 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr anchor="t" bIns="0" horzOverflow="overflow" lIns="0" numCol="1" rIns="0" rot="0" rtlCol="0" spcCol="38100" spcFirstLastPara="1" tIns="0" upright="0" vert="horz" vertOverflow="overflow" wrap="square">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+        <a:defPPr algn="l" defTabSz="914400" fontAlgn="auto" hangingPunct="0" indent="0" latinLnBrk="0" marL="0" marR="0" rtl="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" kumimoji="0" normalizeH="0" spc="0" strike="noStrike" sz="1100" u="none">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -546,22 +572,22 @@
             <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
-        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+        <a:lvl1pPr algn="l" defTabSz="914400" fontAlgn="auto" hangingPunct="0" indent="0" latinLnBrk="1" marL="0" marR="0" rtl="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" kumimoji="0" normalizeH="0" spc="0" strike="noStrike" sz="1800" u="none">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -572,22 +598,22 @@
             <a:uFillTx/>
           </a:defRPr>
         </a:lvl1pPr>
-        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+        <a:lvl2pPr algn="l" defTabSz="914400" fontAlgn="auto" hangingPunct="0" indent="0" latinLnBrk="1" marL="0" marR="0" rtl="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" kumimoji="0" normalizeH="0" spc="0" strike="noStrike" sz="1800" u="none">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -598,22 +624,22 @@
             <a:uFillTx/>
           </a:defRPr>
         </a:lvl2pPr>
-        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+        <a:lvl3pPr algn="l" defTabSz="914400" fontAlgn="auto" hangingPunct="0" indent="0" latinLnBrk="1" marL="0" marR="0" rtl="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" kumimoji="0" normalizeH="0" spc="0" strike="noStrike" sz="1800" u="none">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -624,22 +650,22 @@
             <a:uFillTx/>
           </a:defRPr>
         </a:lvl3pPr>
-        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+        <a:lvl4pPr algn="l" defTabSz="914400" fontAlgn="auto" hangingPunct="0" indent="0" latinLnBrk="1" marL="0" marR="0" rtl="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" kumimoji="0" normalizeH="0" spc="0" strike="noStrike" sz="1800" u="none">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -650,22 +676,22 @@
             <a:uFillTx/>
           </a:defRPr>
         </a:lvl4pPr>
-        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+        <a:lvl5pPr algn="l" defTabSz="914400" fontAlgn="auto" hangingPunct="0" indent="0" latinLnBrk="1" marL="0" marR="0" rtl="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" kumimoji="0" normalizeH="0" spc="0" strike="noStrike" sz="1800" u="none">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -676,22 +702,22 @@
             <a:uFillTx/>
           </a:defRPr>
         </a:lvl5pPr>
-        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+        <a:lvl6pPr algn="l" defTabSz="914400" fontAlgn="auto" hangingPunct="0" indent="0" latinLnBrk="1" marL="0" marR="0" rtl="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" kumimoji="0" normalizeH="0" spc="0" strike="noStrike" sz="1800" u="none">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -702,22 +728,22 @@
             <a:uFillTx/>
           </a:defRPr>
         </a:lvl6pPr>
-        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+        <a:lvl7pPr algn="l" defTabSz="914400" fontAlgn="auto" hangingPunct="0" indent="0" latinLnBrk="1" marL="0" marR="0" rtl="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" kumimoji="0" normalizeH="0" spc="0" strike="noStrike" sz="1800" u="none">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -728,22 +754,22 @@
             <a:uFillTx/>
           </a:defRPr>
         </a:lvl7pPr>
-        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+        <a:lvl8pPr algn="l" defTabSz="914400" fontAlgn="auto" hangingPunct="0" indent="0" latinLnBrk="1" marL="0" marR="0" rtl="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" kumimoji="0" normalizeH="0" spc="0" strike="noStrike" sz="1800" u="none">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -754,22 +780,22 @@
             <a:uFillTx/>
           </a:defRPr>
         </a:lvl8pPr>
-        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+        <a:lvl9pPr algn="l" defTabSz="914400" fontAlgn="auto" hangingPunct="0" indent="0" latinLnBrk="1" marL="0" marR="0" rtl="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" kumimoji="0" normalizeH="0" spc="0" strike="noStrike" sz="1800" u="none">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -791,7 +817,7 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="25400" cap="flat">
+        <a:ln cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
@@ -801,26 +827,26 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr anchor="t" bIns="45719" horzOverflow="overflow" lIns="91439" numCol="1" rIns="91439" rot="0" rtlCol="0" spcCol="38100" spcFirstLastPara="1" tIns="45719" upright="0" vert="horz" vertOverflow="overflow" wrap="square">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+        <a:defPPr algn="l" defTabSz="914400" fontAlgn="auto" hangingPunct="0" indent="0" latinLnBrk="1" marL="0" marR="0" rtl="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" kumimoji="0" normalizeH="0" spc="0" strike="noStrike" sz="1800" u="none">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -831,22 +857,22 @@
             <a:uFillTx/>
           </a:defRPr>
         </a:defPPr>
-        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+        <a:lvl1pPr algn="l" defTabSz="914400" fontAlgn="auto" hangingPunct="0" indent="0" latinLnBrk="1" marL="0" marR="0" rtl="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" kumimoji="0" normalizeH="0" spc="0" strike="noStrike" sz="1800" u="none">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -857,22 +883,22 @@
             <a:uFillTx/>
           </a:defRPr>
         </a:lvl1pPr>
-        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+        <a:lvl2pPr algn="l" defTabSz="914400" fontAlgn="auto" hangingPunct="0" indent="0" latinLnBrk="1" marL="0" marR="0" rtl="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" kumimoji="0" normalizeH="0" spc="0" strike="noStrike" sz="1800" u="none">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -883,22 +909,22 @@
             <a:uFillTx/>
           </a:defRPr>
         </a:lvl2pPr>
-        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+        <a:lvl3pPr algn="l" defTabSz="914400" fontAlgn="auto" hangingPunct="0" indent="0" latinLnBrk="1" marL="0" marR="0" rtl="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" kumimoji="0" normalizeH="0" spc="0" strike="noStrike" sz="1800" u="none">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -909,22 +935,22 @@
             <a:uFillTx/>
           </a:defRPr>
         </a:lvl3pPr>
-        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+        <a:lvl4pPr algn="l" defTabSz="914400" fontAlgn="auto" hangingPunct="0" indent="0" latinLnBrk="1" marL="0" marR="0" rtl="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" kumimoji="0" normalizeH="0" spc="0" strike="noStrike" sz="1800" u="none">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -935,22 +961,22 @@
             <a:uFillTx/>
           </a:defRPr>
         </a:lvl4pPr>
-        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+        <a:lvl5pPr algn="l" defTabSz="914400" fontAlgn="auto" hangingPunct="0" indent="0" latinLnBrk="1" marL="0" marR="0" rtl="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" kumimoji="0" normalizeH="0" spc="0" strike="noStrike" sz="1800" u="none">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -961,22 +987,22 @@
             <a:uFillTx/>
           </a:defRPr>
         </a:lvl5pPr>
-        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+        <a:lvl6pPr algn="l" defTabSz="914400" fontAlgn="auto" hangingPunct="0" indent="0" latinLnBrk="1" marL="0" marR="0" rtl="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" kumimoji="0" normalizeH="0" spc="0" strike="noStrike" sz="1800" u="none">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -987,22 +1013,22 @@
             <a:uFillTx/>
           </a:defRPr>
         </a:lvl6pPr>
-        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+        <a:lvl7pPr algn="l" defTabSz="914400" fontAlgn="auto" hangingPunct="0" indent="0" latinLnBrk="1" marL="0" marR="0" rtl="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" kumimoji="0" normalizeH="0" spc="0" strike="noStrike" sz="1800" u="none">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1013,22 +1039,22 @@
             <a:uFillTx/>
           </a:defRPr>
         </a:lvl7pPr>
-        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+        <a:lvl8pPr algn="l" defTabSz="914400" fontAlgn="auto" hangingPunct="0" indent="0" latinLnBrk="1" marL="0" marR="0" rtl="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" kumimoji="0" normalizeH="0" spc="0" strike="noStrike" sz="1800" u="none">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1039,22 +1065,22 @@
             <a:uFillTx/>
           </a:defRPr>
         </a:lvl8pPr>
-        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+        <a:lvl9pPr algn="l" defTabSz="914400" fontAlgn="auto" hangingPunct="0" indent="0" latinLnBrk="1" marL="0" marR="0" rtl="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" kumimoji="0" normalizeH="0" spc="0" strike="noStrike" sz="1800" u="none">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1076,33 +1102,33 @@
     <a:txDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln cap="flat" w="12700">
           <a:noFill/>
           <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr anchor="t" bIns="0" horzOverflow="overflow" lIns="0" numCol="1" rIns="0" rot="0" rtlCol="0" spcCol="38100" spcFirstLastPara="1" tIns="0" upright="0" vert="horz" vertOverflow="overflow" wrap="square">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+        <a:defPPr algn="l" defTabSz="914400" fontAlgn="auto" hangingPunct="0" indent="0" latinLnBrk="0" marL="0" marR="0" rtl="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" kumimoji="0" normalizeH="0" spc="0" strike="noStrike" sz="1100" u="none">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1117,22 +1143,22 @@
             <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
-        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+        <a:lvl1pPr algn="l" defTabSz="914400" fontAlgn="auto" hangingPunct="0" indent="0" latinLnBrk="1" marL="0" marR="0" rtl="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" kumimoji="0" normalizeH="0" spc="0" strike="noStrike" sz="1800" u="none">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1143,22 +1169,22 @@
             <a:uFillTx/>
           </a:defRPr>
         </a:lvl1pPr>
-        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+        <a:lvl2pPr algn="l" defTabSz="914400" fontAlgn="auto" hangingPunct="0" indent="0" latinLnBrk="1" marL="0" marR="0" rtl="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" kumimoji="0" normalizeH="0" spc="0" strike="noStrike" sz="1800" u="none">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1169,22 +1195,22 @@
             <a:uFillTx/>
           </a:defRPr>
         </a:lvl2pPr>
-        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+        <a:lvl3pPr algn="l" defTabSz="914400" fontAlgn="auto" hangingPunct="0" indent="0" latinLnBrk="1" marL="0" marR="0" rtl="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" kumimoji="0" normalizeH="0" spc="0" strike="noStrike" sz="1800" u="none">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1195,22 +1221,22 @@
             <a:uFillTx/>
           </a:defRPr>
         </a:lvl3pPr>
-        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+        <a:lvl4pPr algn="l" defTabSz="914400" fontAlgn="auto" hangingPunct="0" indent="0" latinLnBrk="1" marL="0" marR="0" rtl="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" kumimoji="0" normalizeH="0" spc="0" strike="noStrike" sz="1800" u="none">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1221,22 +1247,22 @@
             <a:uFillTx/>
           </a:defRPr>
         </a:lvl4pPr>
-        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+        <a:lvl5pPr algn="l" defTabSz="914400" fontAlgn="auto" hangingPunct="0" indent="0" latinLnBrk="1" marL="0" marR="0" rtl="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" kumimoji="0" normalizeH="0" spc="0" strike="noStrike" sz="1800" u="none">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1247,22 +1273,22 @@
             <a:uFillTx/>
           </a:defRPr>
         </a:lvl5pPr>
-        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+        <a:lvl6pPr algn="l" defTabSz="914400" fontAlgn="auto" hangingPunct="0" indent="0" latinLnBrk="1" marL="0" marR="0" rtl="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" kumimoji="0" normalizeH="0" spc="0" strike="noStrike" sz="1800" u="none">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1273,22 +1299,22 @@
             <a:uFillTx/>
           </a:defRPr>
         </a:lvl6pPr>
-        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+        <a:lvl7pPr algn="l" defTabSz="914400" fontAlgn="auto" hangingPunct="0" indent="0" latinLnBrk="1" marL="0" marR="0" rtl="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" kumimoji="0" normalizeH="0" spc="0" strike="noStrike" sz="1800" u="none">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1299,22 +1325,22 @@
             <a:uFillTx/>
           </a:defRPr>
         </a:lvl7pPr>
-        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+        <a:lvl8pPr algn="l" defTabSz="914400" fontAlgn="auto" hangingPunct="0" indent="0" latinLnBrk="1" marL="0" marR="0" rtl="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" kumimoji="0" normalizeH="0" spc="0" strike="noStrike" sz="1800" u="none">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1325,22 +1351,22 @@
             <a:uFillTx/>
           </a:defRPr>
         </a:lvl8pPr>
-        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+        <a:lvl9pPr algn="l" defTabSz="914400" fontAlgn="auto" hangingPunct="0" indent="0" latinLnBrk="1" marL="0" marR="0" rtl="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" kumimoji="0" normalizeH="0" spc="0" strike="noStrike" sz="1800" u="none">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1364,29 +1390,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView defaultGridColor="1" showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.8333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="16.8333" defaultRowHeight="19.9" outlineLevelCol="0" outlineLevelRow="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.3516" style="1" customWidth="1"/>
-    <col min="9" max="256" width="16.8516" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="16.3516" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="16.3516" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="16.3516" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="16.3516" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="16.3516" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="16.3516" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="16.3516" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="16.3516" collapsed="true"/>
+    <col min="9" max="256" customWidth="true" style="1" width="16.8516" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row customHeight="1" ht="31" r="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
@@ -1397,7 +1423,7 @@
       <c r="G1" s="3"/>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" ht="20.25" customHeight="1">
+    <row customHeight="1" ht="20.25" r="2">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1413,7 +1439,7 @@
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" ht="20.25" customHeight="1">
+    <row customHeight="1" ht="20.25" r="3">
       <c r="A3" s="7">
         <v>11</v>
       </c>
@@ -1423,13 +1449,15 @@
       <c r="C3" s="9">
         <v>33</v>
       </c>
-      <c r="D3" s="10"/>
+      <c r="D3" s="21" t="s">
+        <v>1</v>
+      </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
     </row>
-    <row r="4" ht="20.05" customHeight="1">
+    <row customHeight="1" ht="20.05" r="4">
       <c r="A4" s="11">
         <v>111</v>
       </c>
@@ -1445,7 +1473,7 @@
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
     </row>
-    <row r="5" ht="20.05" customHeight="1">
+    <row customHeight="1" ht="20.05" r="5">
       <c r="A5" s="11">
         <v>1111</v>
       </c>
@@ -1461,7 +1489,7 @@
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
     </row>
-    <row r="6" ht="20.05" customHeight="1">
+    <row customHeight="1" ht="20.05" r="6">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="14"/>
@@ -1471,7 +1499,7 @@
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
     </row>
-    <row r="7" ht="20.05" customHeight="1">
+    <row customHeight="1" ht="20.05" r="7">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="14"/>
@@ -1481,7 +1509,7 @@
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
     </row>
-    <row r="8" ht="20.05" customHeight="1">
+    <row customHeight="1" ht="20.05" r="8">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="14"/>
@@ -1491,7 +1519,7 @@
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
     </row>
-    <row r="9" ht="20.05" customHeight="1">
+    <row customHeight="1" ht="20.05" r="9">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="14"/>
@@ -1501,7 +1529,7 @@
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
     </row>
-    <row r="10" ht="20.05" customHeight="1">
+    <row customHeight="1" ht="20.05" r="10">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="14"/>
@@ -1511,7 +1539,7 @@
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
     </row>
-    <row r="11" ht="20.05" customHeight="1">
+    <row customHeight="1" ht="20.05" r="11">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="14"/>
@@ -1521,7 +1549,7 @@
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
     </row>
-    <row r="12" ht="20.05" customHeight="1">
+    <row customHeight="1" ht="20.05" r="12">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="14"/>
@@ -1531,7 +1559,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
     </row>
-    <row r="13" ht="20.05" customHeight="1">
+    <row customHeight="1" ht="20.05" r="13">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="14"/>
@@ -1541,7 +1569,7 @@
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
     </row>
-    <row r="14" ht="20.05" customHeight="1">
+    <row customHeight="1" ht="20.05" r="14">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="14"/>
@@ -1551,7 +1579,7 @@
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
     </row>
-    <row r="15" ht="20.05" customHeight="1">
+    <row customHeight="1" ht="20.05" r="15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="14"/>
@@ -1561,7 +1589,7 @@
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
     </row>
-    <row r="16" ht="20.05" customHeight="1">
+    <row customHeight="1" ht="20.05" r="16">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="14"/>
@@ -1571,7 +1599,7 @@
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
     </row>
-    <row r="17" ht="20.05" customHeight="1">
+    <row customHeight="1" ht="20.05" r="17">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="14"/>
@@ -1581,7 +1609,7 @@
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
     </row>
-    <row r="18" ht="20.05" customHeight="1">
+    <row customHeight="1" ht="20.05" r="18">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="14"/>
@@ -1591,7 +1619,7 @@
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
     </row>
-    <row r="19" ht="20.05" customHeight="1">
+    <row customHeight="1" ht="20.05" r="19">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="14"/>
@@ -1601,7 +1629,7 @@
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
     </row>
-    <row r="20" ht="20.05" customHeight="1">
+    <row customHeight="1" ht="20.05" r="20">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="14"/>
@@ -1611,7 +1639,7 @@
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
     </row>
-    <row r="21" ht="20.05" customHeight="1">
+    <row customHeight="1" ht="20.05" r="21">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="14"/>
@@ -1621,7 +1649,7 @@
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
     </row>
-    <row r="22" ht="20.05" customHeight="1">
+    <row customHeight="1" ht="20.05" r="22">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="14"/>
@@ -1631,7 +1659,7 @@
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
     </row>
-    <row r="23" ht="20.05" customHeight="1">
+    <row customHeight="1" ht="20.05" r="23">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="14"/>
@@ -1645,8 +1673,8 @@
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins bottom="0.75" footer="0.277778" header="0.277778" left="0.5" right="0.5" top="0.75"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" orientation="portrait" pageOrder="downThenOver" scale="100" useFirstPageNumber="0"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
